--- a/Messungen/Auswertung-Mitte.xlsx
+++ b/Messungen/Auswertung-Mitte.xlsx
@@ -607,10 +607,15 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7699230797411659E-2"/>
+                  <c:y val="0.40244204118219867"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -870,46 +875,84 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="579654144"/>
-        <c:axId val="579654720"/>
+        <c:axId val="150301504"/>
+        <c:axId val="608446144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="579654144"/>
+        <c:axId val="150301504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in Sekunden</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579654720"/>
+        <c:crossAx val="608446144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="579654720"/>
+        <c:axId val="608446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strecke in Millimeter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579654144"/>
+        <c:crossAx val="150301504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1143,11 +1186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="579656448"/>
-        <c:axId val="579657024"/>
+        <c:axId val="622967552"/>
+        <c:axId val="622968128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="579656448"/>
+        <c:axId val="622967552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,12 +1200,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579657024"/>
+        <c:crossAx val="622968128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="579657024"/>
+        <c:axId val="622968128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579656448"/>
+        <c:crossAx val="622967552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1202,13 +1245,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1230,15 +1273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1549,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
